--- a/Base de datos total IG 2.xlsx
+++ b/Base de datos total IG 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Desktop\Tesis\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE345BC5-368D-4F2B-9FD7-5C1C144BC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C1E23-B2EF-4CC3-90E4-780CD7A3AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F774A2E-0CB2-4344-92E8-49FAD851198F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>Estacion</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>TipoFort</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -433,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376491C-7D02-4BA4-825A-95FDC2C50714}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,8 +499,8 @@
       <c r="G2">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -513,8 +525,8 @@
       <c r="G3">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H3">
-        <v>3</v>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,8 +551,8 @@
       <c r="G4">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H4">
-        <v>3</v>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -565,8 +577,8 @@
       <c r="G5">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H5">
-        <v>3</v>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -591,8 +603,8 @@
       <c r="G6">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H6">
-        <v>4</v>
+      <c r="H6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -617,8 +629,8 @@
       <c r="G7">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H7">
-        <v>4</v>
+      <c r="H7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -643,8 +655,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>2</v>
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -669,8 +681,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>2</v>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -695,8 +707,8 @@
       <c r="G10">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H10">
-        <v>2</v>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,8 +733,8 @@
       <c r="G11">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H11">
-        <v>2</v>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -747,8 +759,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>2</v>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -773,8 +785,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -799,8 +811,8 @@
       <c r="G14">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H14">
-        <v>2</v>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -825,8 +837,8 @@
       <c r="G15">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H15">
-        <v>2</v>
+      <c r="H15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -851,8 +863,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -877,8 +889,8 @@
       <c r="G17">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H17">
-        <v>2</v>
+      <c r="H17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -903,8 +915,8 @@
       <c r="G18">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H18">
-        <v>2</v>
+      <c r="H18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -929,8 +941,8 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>2</v>
+      <c r="H19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,8 +967,8 @@
       <c r="G20">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H20">
-        <v>2</v>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -981,8 +993,8 @@
       <c r="G21">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H21">
-        <v>2</v>
+      <c r="H21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,8 +1019,8 @@
       <c r="G22">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1033,8 +1045,8 @@
       <c r="G23">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H23">
-        <v>2</v>
+      <c r="H23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1059,8 +1071,8 @@
       <c r="G24">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1085,8 +1097,8 @@
       <c r="G25">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H25">
-        <v>2</v>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,8 +1123,8 @@
       <c r="G26">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H26">
-        <v>2</v>
+      <c r="H26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1137,8 +1149,8 @@
       <c r="G27">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H27">
-        <v>2</v>
+      <c r="H27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,8 +1175,8 @@
       <c r="G28">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H28">
-        <v>2</v>
+      <c r="H28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1189,8 +1201,8 @@
       <c r="G29">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H29">
-        <v>2</v>
+      <c r="H29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1215,8 +1227,8 @@
       <c r="G30">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H30">
-        <v>2</v>
+      <c r="H30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1241,8 +1253,8 @@
       <c r="G31">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H31">
-        <v>2</v>
+      <c r="H31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1267,8 +1279,8 @@
       <c r="G32">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H32">
-        <v>2</v>
+      <c r="H32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1293,8 +1305,8 @@
       <c r="G33">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H33">
-        <v>2</v>
+      <c r="H33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1319,8 +1331,8 @@
       <c r="G34">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H34">
-        <v>2</v>
+      <c r="H34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1345,8 +1357,8 @@
       <c r="G35">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H35">
-        <v>2</v>
+      <c r="H35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1371,8 +1383,8 @@
       <c r="G36">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="H36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1397,8 +1409,8 @@
       <c r="G37">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H37">
-        <v>2</v>
+      <c r="H37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1423,8 +1435,8 @@
       <c r="G38">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H38">
-        <v>2</v>
+      <c r="H38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1449,8 +1461,8 @@
       <c r="G39">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H39">
-        <v>2</v>
+      <c r="H39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1475,8 +1487,8 @@
       <c r="G40">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H40">
-        <v>3</v>
+      <c r="H40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1501,8 +1513,8 @@
       <c r="G41">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H41">
-        <v>3</v>
+      <c r="H41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1527,8 +1539,8 @@
       <c r="G42">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H42">
-        <v>3</v>
+      <c r="H42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1553,8 +1565,8 @@
       <c r="G43">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H43">
-        <v>3</v>
+      <c r="H43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1579,8 +1591,8 @@
       <c r="G44">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H44">
-        <v>3</v>
+      <c r="H44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1605,8 +1617,8 @@
       <c r="G45">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H45">
-        <v>3</v>
+      <c r="H45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1631,8 +1643,8 @@
       <c r="G46">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H46">
-        <v>3</v>
+      <c r="H46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1657,8 +1669,8 @@
       <c r="G47">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H47">
-        <v>3</v>
+      <c r="H47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1683,8 +1695,8 @@
       <c r="G48">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H48">
-        <v>3</v>
+      <c r="H48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1709,8 +1721,8 @@
       <c r="G49">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H49">
-        <v>3</v>
+      <c r="H49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1735,8 +1747,8 @@
       <c r="G50">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H50">
-        <v>3</v>
+      <c r="H50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1761,8 +1773,8 @@
       <c r="G51">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H51">
-        <v>3</v>
+      <c r="H51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1787,8 +1799,8 @@
       <c r="G52">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H52">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1813,8 +1825,8 @@
       <c r="G53">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H53">
-        <v>2</v>
+      <c r="H53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1839,8 +1851,8 @@
       <c r="G54">
         <v>0.63636363636363635</v>
       </c>
-      <c r="H54">
-        <v>2</v>
+      <c r="H54" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1865,8 +1877,8 @@
       <c r="G55">
         <v>0.27272727272727271</v>
       </c>
-      <c r="H55">
-        <v>3</v>
+      <c r="H55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1891,8 +1903,8 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>2</v>
+      <c r="H56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1917,8 +1929,8 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>2</v>
+      <c r="H57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1943,8 +1955,8 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>2</v>
+      <c r="H58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1969,8 +1981,8 @@
       <c r="G59">
         <v>0.27272727272727271</v>
       </c>
-      <c r="H59">
-        <v>2</v>
+      <c r="H59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1995,8 +2007,8 @@
       <c r="G60">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H60">
-        <v>2</v>
+      <c r="H60" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2021,8 +2033,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>2</v>
+      <c r="H61" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2047,8 +2059,8 @@
       <c r="G62">
         <v>0.45454545454545453</v>
       </c>
-      <c r="H62">
-        <v>2</v>
+      <c r="H62" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2073,8 +2085,8 @@
       <c r="G63">
         <v>0.54545454545454541</v>
       </c>
-      <c r="H63">
-        <v>2</v>
+      <c r="H63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2099,8 +2111,8 @@
       <c r="G64">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H64">
-        <v>2</v>
+      <c r="H64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2125,8 +2137,8 @@
       <c r="G65">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H65">
-        <v>2</v>
+      <c r="H65" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2151,8 +2163,8 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>1</v>
+      <c r="H66" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2177,8 +2189,8 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>2</v>
+      <c r="H67" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,8 +2215,8 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>1</v>
+      <c r="H68" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2229,8 +2241,8 @@
       <c r="G69">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H69">
-        <v>2</v>
+      <c r="H69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2255,8 +2267,8 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>2</v>
+      <c r="H70" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2281,8 +2293,8 @@
       <c r="G71">
         <v>0.72727272727272729</v>
       </c>
-      <c r="H71">
-        <v>3</v>
+      <c r="H71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2307,8 +2319,8 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>2</v>
+      <c r="H72" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2333,8 +2345,8 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>1</v>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2359,8 +2371,8 @@
       <c r="G74">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H74">
-        <v>2</v>
+      <c r="H74" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2385,8 +2397,8 @@
       <c r="G75">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H75">
-        <v>2</v>
+      <c r="H75" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2411,8 +2423,8 @@
       <c r="G76">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H76">
-        <v>2</v>
+      <c r="H76" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2437,8 +2449,8 @@
       <c r="G77">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H77">
-        <v>2</v>
+      <c r="H77" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2463,8 +2475,8 @@
       <c r="G78">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H78">
-        <v>2</v>
+      <c r="H78" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2489,8 +2501,8 @@
       <c r="G79">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H79">
-        <v>2</v>
+      <c r="H79" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2515,8 +2527,8 @@
       <c r="G80">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H80">
-        <v>2</v>
+      <c r="H80" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2541,8 +2553,8 @@
       <c r="G81">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H81">
-        <v>2</v>
+      <c r="H81" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,8 +2579,8 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>2</v>
+      <c r="H82" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2593,8 +2605,8 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>1</v>
+      <c r="H83" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2619,8 +2631,8 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>2</v>
+      <c r="H84" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2645,8 +2657,8 @@
       <c r="G85">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H85">
-        <v>2</v>
+      <c r="H85" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2671,8 +2683,8 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>1</v>
+      <c r="H86" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2697,8 +2709,8 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>1</v>
+      <c r="H87" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2723,8 +2735,8 @@
       <c r="G88">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H88">
-        <v>2</v>
+      <c r="H88" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2749,8 +2761,8 @@
       <c r="G89">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H89">
-        <v>2</v>
+      <c r="H89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2775,8 +2787,8 @@
       <c r="G90">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H90">
-        <v>2</v>
+      <c r="H90" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2801,8 +2813,8 @@
       <c r="G91">
         <v>0.90909090909090906</v>
       </c>
-      <c r="H91">
-        <v>2</v>
+      <c r="H91" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2827,8 +2839,8 @@
       <c r="G92">
         <v>0.81818181818181823</v>
       </c>
-      <c r="H92">
-        <v>3</v>
+      <c r="H92" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
